--- a/data/trans_dic/P57_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,46; 17,08</t>
+          <t>10,51; 17,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,59; 14,61</t>
+          <t>8,87; 15,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 15,37</t>
+          <t>8,35; 15,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,66</t>
+          <t>6,36; 10,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,32; 15,29</t>
+          <t>10,18; 15,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,31; 12,13</t>
+          <t>8,26; 12,06</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 16,27</t>
+          <t>8,72; 15,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 13,04</t>
+          <t>7,61; 13,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,95; 18,8</t>
+          <t>10,96; 18,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,13; 15,61</t>
+          <t>9,98; 15,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,05; 16,03</t>
+          <t>11,04; 16,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,3; 13,2</t>
+          <t>9,29; 13,18</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,58; 26,3</t>
+          <t>18,74; 25,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 15,86</t>
+          <t>3,42; 15,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,46; 38,94</t>
+          <t>22,48; 38,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,79; 24,41</t>
+          <t>14,97; 23,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,83; 27,61</t>
+          <t>21,11; 28,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 16,63</t>
+          <t>4,83; 16,8</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,53; 21,18</t>
+          <t>16,66; 21,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,93; 17,08</t>
+          <t>13,01; 17,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,05; 23,97</t>
+          <t>18,06; 23,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,39; 12,55</t>
+          <t>4,8; 12,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,85; 21,34</t>
+          <t>17,85; 21,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,0; 14,37</t>
+          <t>8,42; 14,21</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>23,89; 30,94</t>
+          <t>24,08; 31,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,41; 23,07</t>
+          <t>16,56; 23,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28,19; 35,46</t>
+          <t>28,31; 35,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,64; 25,92</t>
+          <t>16,45; 26,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>27,09; 32,1</t>
+          <t>27,08; 32,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,1; 23,9</t>
+          <t>17,37; 24,01</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,79; 9,91</t>
+          <t>3,83; 10,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,09; 8,46</t>
+          <t>2,05; 8,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,4; 29,18</t>
+          <t>23,24; 29,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,11; 25,14</t>
+          <t>20,03; 25,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>19,58; 24,42</t>
+          <t>19,73; 24,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,96; 20,28</t>
+          <t>16,0; 20,28</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,16; 19,98</t>
+          <t>17,23; 19,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,95; 13,94</t>
+          <t>9,59; 14,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,04; 24,95</t>
+          <t>22,07; 25,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,65; 17,45</t>
+          <t>13,14; 17,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>20,03; 22,09</t>
+          <t>20,05; 22,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,23; 15,44</t>
+          <t>12,32; 15,49</t>
         </is>
       </c>
     </row>
@@ -1171,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>58092</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>57132</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>38970</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>37338</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>97062</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>94470</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>44909; 74463</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>44826; 77268</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>28796; 52431</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>28411; 47588</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>78640; 118072</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>78595; 114784</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>46080</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>44695</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>53731</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>47646</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>99811</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>92341</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>32663; 59371</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>34347; 59120</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>40439; 69299</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>38018; 59491</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>82145; 120623</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>77315; 109769</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>116042</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>63447</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>49724</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>31846</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>165767</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>95293</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>97272; 134860</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22883; 106492</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>37003; 63416</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>24990; 39837</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>144266; 192005</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>40358; 140305</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>216299</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>153726</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>170390</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>92399</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>386689</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>246124</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>190804; 245739</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>133842; 175930</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>148945; 195505</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>46796; 123774</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>351781; 419540</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>168745; 284634</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>490</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>169400</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>92709</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>233272</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>187366</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>402672</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>280075</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>148955; 193784</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>78237; 112389</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>208373; 259591</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>137750; 218698</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>366763; 435389</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>227482; 314446</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>18008</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>10583</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>280530</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>168823</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>298538</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>179406</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>10984; 29330</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>4940; 20245</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>249975; 312954</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>150713; 188085</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>268869; 328794</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>158874; 201377</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1345</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>1556</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>623922</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>422291</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>826618</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>565417</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>1450539</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>987709</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>580897; 668331</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>322986; 473933</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>775630; 879517</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>467667; 624734</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>1381153; 1521034</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>853300; 1073062</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P57_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Clase-trans_dic.xlsx
@@ -992,7 +992,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1864,7 +1864,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
